--- a/PythonResources/Data/Consumption/Sympheny/post_1560_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1560_hea.xlsx
@@ -615,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>67.17158899014169</v>
+        <v>67.17158899014167</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -623,7 +623,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>60.52884082784363</v>
+        <v>60.52884082784362</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -791,7 +791,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>70.04016831655893</v>
+        <v>70.04016831655892</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>24.16177286877276</v>
+        <v>24.16177286877275</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>0.7692499315679125</v>
+        <v>0.7692499315679124</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>4.01143914878103</v>
+        <v>4.011439148781029</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>5.917104270572562</v>
+        <v>5.917104270572561</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>0.9778256590728054</v>
+        <v>0.9778256590728052</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>85.18637266561592</v>
+        <v>85.18637266561591</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>75.51033925317294</v>
+        <v>75.51033925317293</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2175,7 +2175,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>6.296514037223539</v>
+        <v>6.296514037223538</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>9.191674906847371</v>
+        <v>9.19167490684737</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3327,7 +3327,7 @@
         <v>373</v>
       </c>
       <c r="B373">
-        <v>53.67273694940012</v>
+        <v>53.67273694940011</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -3519,7 +3519,7 @@
         <v>397</v>
       </c>
       <c r="B397">
-        <v>64.96798785044703</v>
+        <v>64.96798785044702</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -3719,7 +3719,7 @@
         <v>422</v>
       </c>
       <c r="B422">
-        <v>68.21873181127867</v>
+        <v>68.21873181127866</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>446</v>
       </c>
       <c r="B446">
-        <v>108.6985828842997</v>
+        <v>108.6985828842996</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -3943,7 +3943,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>99.6828385219607</v>
+        <v>99.68283852196068</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -4063,7 +4063,7 @@
         <v>465</v>
       </c>
       <c r="B465">
-        <v>6.305833696252971</v>
+        <v>6.30583369625297</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>63.39478251491293</v>
+        <v>63.39478251491292</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>503</v>
       </c>
       <c r="B503">
-        <v>72.97293020044302</v>
+        <v>72.972930200443</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -4591,7 +4591,7 @@
         <v>531</v>
       </c>
       <c r="B531">
-        <v>6.348094540027936</v>
+        <v>6.348094540027935</v>
       </c>
     </row>
     <row r="532" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>532</v>
       </c>
       <c r="B532">
-        <v>17.57714069344125</v>
+        <v>17.57714069344124</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>538</v>
       </c>
       <c r="B538">
-        <v>137.1765887820613</v>
+        <v>137.1765887820612</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>545</v>
       </c>
       <c r="B545">
-        <v>78.24850196738589</v>
+        <v>78.24850196738588</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4799,7 +4799,7 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>34.20344170904963</v>
+        <v>34.20344170904962</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>293.4959916674043</v>
+        <v>293.4959916674042</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>93.58285792326346</v>
+        <v>93.58285792326345</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>7.787425025101535</v>
+        <v>7.787425025101534</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5527,7 +5527,7 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>57.01257450598481</v>
+        <v>57.0125745059848</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>649</v>
       </c>
       <c r="B649">
-        <v>63.23388651468785</v>
+        <v>63.23388651468784</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>77.08471687286169</v>
+        <v>77.08471687286168</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5591,7 +5591,7 @@
         <v>656</v>
       </c>
       <c r="B656">
-        <v>77.86692347504882</v>
+        <v>77.86692347504881</v>
       </c>
     </row>
     <row r="657" spans="1:2">
@@ -5599,7 +5599,7 @@
         <v>657</v>
       </c>
       <c r="B657">
-        <v>48.73800680042039</v>
+        <v>48.73800680042038</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>41.67059870310205</v>
+        <v>41.67059870310204</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -6055,7 +6055,7 @@
         <v>714</v>
       </c>
       <c r="B714">
-        <v>36.92460630302022</v>
+        <v>36.92460630302021</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>83.29284068482497</v>
+        <v>83.29284068482495</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6535,7 +6535,7 @@
         <v>774</v>
       </c>
       <c r="B774">
-        <v>267.6664687460253</v>
+        <v>267.6664687460252</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -6551,7 +6551,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>117.6943984160097</v>
+        <v>117.6943984160096</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -6583,7 +6583,7 @@
         <v>780</v>
       </c>
       <c r="B780">
-        <v>74.58511398411908</v>
+        <v>74.58511398411906</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>800</v>
       </c>
       <c r="B800">
-        <v>33.58213110708758</v>
+        <v>33.58213110708757</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>19.39221755718256</v>
+        <v>19.39221755718255</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>810</v>
       </c>
       <c r="B810">
-        <v>55.24975220843682</v>
+        <v>55.24975220843681</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6927,7 +6927,7 @@
         <v>823</v>
       </c>
       <c r="B823">
-        <v>91.8024513633958</v>
+        <v>91.80245136339578</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>825</v>
       </c>
       <c r="B825">
-        <v>82.52645991872555</v>
+        <v>82.52645991872554</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -6967,7 +6967,7 @@
         <v>828</v>
       </c>
       <c r="B828">
-        <v>37.73729229322813</v>
+        <v>37.73729229322812</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -7095,7 +7095,7 @@
         <v>844</v>
       </c>
       <c r="B844">
-        <v>102.4262765148696</v>
+        <v>102.4262765148695</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -7191,7 +7191,7 @@
         <v>856</v>
       </c>
       <c r="B856">
-        <v>67.06168735064368</v>
+        <v>67.06168735064367</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -7271,7 +7271,7 @@
         <v>866</v>
       </c>
       <c r="B866">
-        <v>7.254592569711344</v>
+        <v>7.254592569711343</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>72.28948853828476</v>
+        <v>72.28948853828474</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7719,7 +7719,7 @@
         <v>922</v>
       </c>
       <c r="B922">
-        <v>64.04334872347049</v>
+        <v>64.04334872347047</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -7759,7 +7759,7 @@
         <v>927</v>
       </c>
       <c r="B927">
-        <v>40.2137425699165</v>
+        <v>40.21374256991649</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7791,7 +7791,7 @@
         <v>931</v>
       </c>
       <c r="B931">
-        <v>55.21663518106809</v>
+        <v>55.21663518106808</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>946</v>
       </c>
       <c r="B946">
-        <v>43.87683748214465</v>
+        <v>43.87683748214464</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -8671,7 +8671,7 @@
         <v>1041</v>
       </c>
       <c r="B1041">
-        <v>80.18247775151211</v>
+        <v>80.1824777515121</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>1044</v>
       </c>
       <c r="B1044">
-        <v>58.37095877018015</v>
+        <v>58.37095877018014</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8711,7 +8711,7 @@
         <v>1046</v>
       </c>
       <c r="B1046">
-        <v>41.36258104146897</v>
+        <v>41.36258104146896</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8911,7 +8911,7 @@
         <v>1071</v>
       </c>
       <c r="B1071">
-        <v>1.663359848447105</v>
+        <v>1.663359848447104</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>1089</v>
       </c>
       <c r="B1089">
-        <v>67.40868346041871</v>
+        <v>67.4086834604187</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9295,7 +9295,7 @@
         <v>1119</v>
       </c>
       <c r="B1119">
-        <v>72.60864289938696</v>
+        <v>72.60864289938695</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
@@ -9559,7 +9559,7 @@
         <v>1152</v>
       </c>
       <c r="B1152">
-        <v>42.95483599451606</v>
+        <v>42.95483599451605</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>1174</v>
       </c>
       <c r="B1174">
-        <v>41.05427030879724</v>
+        <v>41.05427030879723</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -9791,7 +9791,7 @@
         <v>1181</v>
       </c>
       <c r="B1181">
-        <v>61.85557341986354</v>
+        <v>61.85557341986353</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>294.3664126522285</v>
+        <v>294.3664126522284</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10039,7 +10039,7 @@
         <v>1212</v>
       </c>
       <c r="B1212">
-        <v>81.45411298826369</v>
+        <v>81.45411298826367</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
@@ -10239,7 +10239,7 @@
         <v>1237</v>
       </c>
       <c r="B1237">
-        <v>4.878050210102628</v>
+        <v>4.878050210102627</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -10255,7 +10255,7 @@
         <v>1239</v>
       </c>
       <c r="B1239">
-        <v>0.9715598002662258</v>
+        <v>0.9715598002662256</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -10287,7 +10287,7 @@
         <v>1243</v>
       </c>
       <c r="B1243">
-        <v>7.826520701658959</v>
+        <v>7.826520701658958</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>90.8804498757672</v>
+        <v>90.88044987576718</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10399,7 +10399,7 @@
         <v>1257</v>
       </c>
       <c r="B1257">
-        <v>20.59600684848404</v>
+        <v>20.59600684848403</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
@@ -10439,7 +10439,7 @@
         <v>1262</v>
       </c>
       <c r="B1262">
-        <v>4.525749514527825</v>
+        <v>4.525749514527824</v>
       </c>
     </row>
     <row r="1263" spans="1:2">
@@ -10631,7 +10631,7 @@
         <v>1286</v>
       </c>
       <c r="B1286">
-        <v>5.170095500128658</v>
+        <v>5.170095500128657</v>
       </c>
     </row>
     <row r="1287" spans="1:2">
@@ -10639,7 +10639,7 @@
         <v>1287</v>
       </c>
       <c r="B1287">
-        <v>4.195253304229426</v>
+        <v>4.195253304229425</v>
       </c>
     </row>
     <row r="1288" spans="1:2">
@@ -10655,7 +10655,7 @@
         <v>1289</v>
       </c>
       <c r="B1289">
-        <v>5.464514665567847</v>
+        <v>5.464514665567846</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -11151,7 +11151,7 @@
         <v>1351</v>
       </c>
       <c r="B1351">
-        <v>21.51988399076006</v>
+        <v>21.51988399076005</v>
       </c>
     </row>
     <row r="1352" spans="1:2">
@@ -11167,7 +11167,7 @@
         <v>1353</v>
       </c>
       <c r="B1353">
-        <v>3.834951769299168</v>
+        <v>3.834951769299167</v>
       </c>
     </row>
     <row r="1354" spans="1:2">
@@ -11367,7 +11367,7 @@
         <v>1378</v>
       </c>
       <c r="B1378">
-        <v>6.875006960437169</v>
+        <v>6.875006960437168</v>
       </c>
     </row>
     <row r="1379" spans="1:2">
@@ -11719,7 +11719,7 @@
         <v>1422</v>
       </c>
       <c r="B1422">
-        <v>152.4241957104951</v>
+        <v>152.424195710495</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11799,7 +11799,7 @@
         <v>1432</v>
       </c>
       <c r="B1432">
-        <v>12.22988375044181</v>
+        <v>12.2298837504418</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
@@ -12271,7 +12271,7 @@
         <v>1491</v>
       </c>
       <c r="B1491">
-        <v>11.37095115033314</v>
+        <v>11.37095115033313</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -12519,7 +12519,7 @@
         <v>1522</v>
       </c>
       <c r="B1522">
-        <v>50.39913344755289</v>
+        <v>50.39913344755288</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
@@ -12695,7 +12695,7 @@
         <v>1544</v>
       </c>
       <c r="B1544">
-        <v>53.8866788076229</v>
+        <v>53.88667880762289</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -13167,7 +13167,7 @@
         <v>1603</v>
       </c>
       <c r="B1603">
-        <v>19.38957991783461</v>
+        <v>19.3895799178346</v>
       </c>
     </row>
     <row r="1604" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>86.65876156385052</v>
+        <v>86.6587615638505</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>56.68931715034135</v>
+        <v>56.68931715034134</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13303,7 +13303,7 @@
         <v>1620</v>
       </c>
       <c r="B1620">
-        <v>27.93186801721617</v>
+        <v>27.93186801721616</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>4.995366546878765</v>
+        <v>4.995366546878764</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13655,7 +13655,7 @@
         <v>1664</v>
       </c>
       <c r="B1664">
-        <v>2.49048544872986</v>
+        <v>2.490485448729859</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13847,7 +13847,7 @@
         <v>1688</v>
       </c>
       <c r="B1688">
-        <v>70.07328534392767</v>
+        <v>70.07328534392765</v>
       </c>
     </row>
     <row r="1689" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>52.08282656466232</v>
+        <v>52.08282656466231</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -14695,7 +14695,7 @@
         <v>1794</v>
       </c>
       <c r="B1794">
-        <v>0.3253967742256917</v>
+        <v>0.3253967742256916</v>
       </c>
     </row>
     <row r="1795" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>4.298414309838219</v>
+        <v>4.298414309838218</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15207,7 +15207,7 @@
         <v>1858</v>
       </c>
       <c r="B1858">
-        <v>13.79605538104804</v>
+        <v>13.79605538104803</v>
       </c>
     </row>
     <row r="1859" spans="1:2">
@@ -15423,7 +15423,7 @@
         <v>1885</v>
       </c>
       <c r="B1885">
-        <v>3.25508141220383</v>
+        <v>3.255081412203829</v>
       </c>
     </row>
     <row r="1886" spans="1:2">
@@ -15455,7 +15455,7 @@
         <v>1889</v>
       </c>
       <c r="B1889">
-        <v>0.7087659306089841</v>
+        <v>0.708765930608984</v>
       </c>
     </row>
     <row r="1890" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>53.95291286236037</v>
+        <v>53.95291286236036</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15583,7 +15583,7 @@
         <v>1905</v>
       </c>
       <c r="B1905">
-        <v>8.497448230466377</v>
+        <v>8.497448230466375</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -15759,7 +15759,7 @@
         <v>1927</v>
       </c>
       <c r="B1927">
-        <v>61.60910067634935</v>
+        <v>61.60910067634934</v>
       </c>
     </row>
     <row r="1928" spans="1:2">
@@ -16503,7 +16503,7 @@
         <v>2020</v>
       </c>
       <c r="B2020">
-        <v>9.592215095385832</v>
+        <v>9.59221509538583</v>
       </c>
     </row>
     <row r="2021" spans="1:2">
@@ -16551,7 +16551,7 @@
         <v>2026</v>
       </c>
       <c r="B2026">
-        <v>91.28781861950648</v>
+        <v>91.28781861950644</v>
       </c>
     </row>
     <row r="2027" spans="1:2">
@@ -16927,7 +16927,7 @@
         <v>2073</v>
       </c>
       <c r="B2073">
-        <v>51.035976814564</v>
+        <v>51.03597681456399</v>
       </c>
     </row>
     <row r="2074" spans="1:2">
@@ -16999,7 +16999,7 @@
         <v>2082</v>
       </c>
       <c r="B2082">
-        <v>7.539985147159761</v>
+        <v>7.53998514715976</v>
       </c>
     </row>
     <row r="2083" spans="1:2">
@@ -17143,7 +17143,7 @@
         <v>2100</v>
       </c>
       <c r="B2100">
-        <v>6.724749438915497</v>
+        <v>6.724749438915496</v>
       </c>
     </row>
     <row r="2101" spans="1:2">
@@ -17151,7 +17151,7 @@
         <v>2101</v>
       </c>
       <c r="B2101">
-        <v>4.068207008969733</v>
+        <v>4.068207008969732</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
@@ -17887,7 +17887,7 @@
         <v>2193</v>
       </c>
       <c r="B2193">
-        <v>5.44007254094349</v>
+        <v>5.440072540943489</v>
       </c>
     </row>
     <row r="2194" spans="1:2">
@@ -21927,7 +21927,7 @@
         <v>2698</v>
       </c>
       <c r="B2698">
-        <v>3.544371834466444</v>
+        <v>3.544371834466443</v>
       </c>
     </row>
     <row r="2699" spans="1:2">
@@ -54543,7 +54543,7 @@
         <v>6775</v>
       </c>
       <c r="B6775">
-        <v>17.13976147534306</v>
+        <v>17.13976147534305</v>
       </c>
     </row>
     <row r="6776" spans="1:2">
@@ -54551,7 +54551,7 @@
         <v>6776</v>
       </c>
       <c r="B6776">
-        <v>1.775667601172519</v>
+        <v>1.775667601172518</v>
       </c>
     </row>
     <row r="6777" spans="1:2">
@@ -56079,7 +56079,7 @@
         <v>6967</v>
       </c>
       <c r="B6967">
-        <v>5.485820930078527</v>
+        <v>5.485820930078526</v>
       </c>
     </row>
     <row r="6968" spans="1:2">
@@ -58175,7 +58175,7 @@
         <v>7229</v>
       </c>
       <c r="B7229">
-        <v>231.8666690893873</v>
+        <v>231.8666690893872</v>
       </c>
     </row>
     <row r="7230" spans="1:2">
@@ -58559,7 +58559,7 @@
         <v>7277</v>
       </c>
       <c r="B7277">
-        <v>54.25624138737486</v>
+        <v>54.25624138737485</v>
       </c>
     </row>
     <row r="7278" spans="1:2">
@@ -59047,7 +59047,7 @@
         <v>7338</v>
       </c>
       <c r="B7338">
-        <v>0.3742282706874451</v>
+        <v>0.374228270687445</v>
       </c>
     </row>
     <row r="7339" spans="1:2">
@@ -60103,7 +60103,7 @@
         <v>7470</v>
       </c>
       <c r="B7470">
-        <v>88.64109406935586</v>
+        <v>88.64109406935584</v>
       </c>
     </row>
     <row r="7471" spans="1:2">
@@ -61151,7 +61151,7 @@
         <v>7601</v>
       </c>
       <c r="B7601">
-        <v>8.194295548075081</v>
+        <v>8.194295548075079</v>
       </c>
     </row>
     <row r="7602" spans="1:2">
@@ -61719,7 +61719,7 @@
         <v>7672</v>
       </c>
       <c r="B7672">
-        <v>6.689903292418664</v>
+        <v>6.689903292418663</v>
       </c>
     </row>
     <row r="7673" spans="1:2">
@@ -62047,7 +62047,7 @@
         <v>7713</v>
       </c>
       <c r="B7713">
-        <v>0.1015244969289086</v>
+        <v>0.1015244969289085</v>
       </c>
     </row>
     <row r="7714" spans="1:2">
@@ -62255,7 +62255,7 @@
         <v>7739</v>
       </c>
       <c r="B7739">
-        <v>99.2007366633628</v>
+        <v>99.20073666336278</v>
       </c>
     </row>
     <row r="7740" spans="1:2">
@@ -62287,7 +62287,7 @@
         <v>7743</v>
       </c>
       <c r="B7743">
-        <v>80.75601777417236</v>
+        <v>80.75601777417235</v>
       </c>
     </row>
     <row r="7744" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>89.82070499996777</v>
+        <v>89.82070499996776</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62455,7 +62455,7 @@
         <v>7764</v>
       </c>
       <c r="B7764">
-        <v>44.24405549358732</v>
+        <v>44.24405549358731</v>
       </c>
     </row>
     <row r="7765" spans="1:2">
@@ -62631,7 +62631,7 @@
         <v>7786</v>
       </c>
       <c r="B7786">
-        <v>78.28220513683195</v>
+        <v>78.28220513683193</v>
       </c>
     </row>
     <row r="7787" spans="1:2">
@@ -62655,7 +62655,7 @@
         <v>7789</v>
       </c>
       <c r="B7789">
-        <v>54.54433021837896</v>
+        <v>54.54433021837895</v>
       </c>
     </row>
     <row r="7790" spans="1:2">
@@ -62687,7 +62687,7 @@
         <v>7793</v>
       </c>
       <c r="B7793">
-        <v>57.96593459475017</v>
+        <v>57.96593459475016</v>
       </c>
     </row>
     <row r="7794" spans="1:2">
@@ -62903,7 +62903,7 @@
         <v>7820</v>
       </c>
       <c r="B7820">
-        <v>5.052574013625459</v>
+        <v>5.052574013625458</v>
       </c>
     </row>
     <row r="7821" spans="1:2">
@@ -63535,7 +63535,7 @@
         <v>7899</v>
       </c>
       <c r="B7899">
-        <v>16.96544282154729</v>
+        <v>16.96544282154728</v>
       </c>
     </row>
     <row r="7900" spans="1:2">
@@ -63591,7 +63591,7 @@
         <v>7906</v>
       </c>
       <c r="B7906">
-        <v>89.05842722840961</v>
+        <v>89.0584272284096</v>
       </c>
     </row>
     <row r="7907" spans="1:2">
@@ -63767,7 +63767,7 @@
         <v>7928</v>
       </c>
       <c r="B7928">
-        <v>76.67939962639305</v>
+        <v>76.67939962639304</v>
       </c>
     </row>
     <row r="7929" spans="1:2">
@@ -63783,7 +63783,7 @@
         <v>7930</v>
       </c>
       <c r="B7930">
-        <v>20.33757680659246</v>
+        <v>20.33757680659245</v>
       </c>
     </row>
     <row r="7931" spans="1:2">
@@ -63967,7 +63967,7 @@
         <v>7953</v>
       </c>
       <c r="B7953">
-        <v>35.41880730637823</v>
+        <v>35.41880730637822</v>
       </c>
     </row>
     <row r="7954" spans="1:2">
@@ -64135,7 +64135,7 @@
         <v>7974</v>
       </c>
       <c r="B7974">
-        <v>220.4922890079018</v>
+        <v>220.4922890079017</v>
       </c>
     </row>
     <row r="7975" spans="1:2">
@@ -64191,7 +64191,7 @@
         <v>7981</v>
       </c>
       <c r="B7981">
-        <v>6.547939681291108</v>
+        <v>6.547939681291107</v>
       </c>
     </row>
     <row r="7982" spans="1:2">
@@ -64951,7 +64951,7 @@
         <v>8076</v>
       </c>
       <c r="B8076">
-        <v>3.108809656807953</v>
+        <v>3.108809656807952</v>
       </c>
     </row>
     <row r="8077" spans="1:2">
@@ -65119,7 +65119,7 @@
         <v>8097</v>
       </c>
       <c r="B8097">
-        <v>0.6905750112392744</v>
+        <v>0.6905750112392743</v>
       </c>
     </row>
     <row r="8098" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>83.53989957041648</v>
+        <v>83.53989957041647</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66463,7 +66463,7 @@
         <v>8265</v>
       </c>
       <c r="B8265">
-        <v>41.28110729272112</v>
+        <v>41.28110729272111</v>
       </c>
     </row>
     <row r="8266" spans="1:2">
@@ -66471,7 +66471,7 @@
         <v>8266</v>
       </c>
       <c r="B8266">
-        <v>23.94111968376463</v>
+        <v>23.94111968376462</v>
       </c>
     </row>
     <row r="8267" spans="1:2">
@@ -66679,7 +66679,7 @@
         <v>8292</v>
       </c>
       <c r="B8292">
-        <v>33.76793814559887</v>
+        <v>33.76793814559886</v>
       </c>
     </row>
     <row r="8293" spans="1:2">
@@ -66703,7 +66703,7 @@
         <v>8295</v>
       </c>
       <c r="B8295">
-        <v>30.35219519000089</v>
+        <v>30.35219519000088</v>
       </c>
     </row>
     <row r="8296" spans="1:2">
@@ -66727,7 +66727,7 @@
         <v>8298</v>
       </c>
       <c r="B8298">
-        <v>33.72456363187699</v>
+        <v>33.72456363187698</v>
       </c>
     </row>
     <row r="8299" spans="1:2">
@@ -66927,7 +66927,7 @@
         <v>8323</v>
       </c>
       <c r="B8323">
-        <v>52.11594359203105</v>
+        <v>52.11594359203104</v>
       </c>
     </row>
     <row r="8324" spans="1:2">
@@ -67375,7 +67375,7 @@
         <v>8379</v>
       </c>
       <c r="B8379">
-        <v>0.8555007382459465</v>
+        <v>0.8555007382459464</v>
       </c>
     </row>
     <row r="8380" spans="1:2">
@@ -67423,7 +67423,7 @@
         <v>8385</v>
       </c>
       <c r="B8385">
-        <v>8.852796864843258</v>
+        <v>8.852796864843256</v>
       </c>
     </row>
     <row r="8386" spans="1:2">
@@ -67431,7 +67431,7 @@
         <v>8386</v>
       </c>
       <c r="B8386">
-        <v>5.917778333961483</v>
+        <v>5.917778333961482</v>
       </c>
     </row>
     <row r="8387" spans="1:2">
@@ -67447,7 +67447,7 @@
         <v>8388</v>
       </c>
       <c r="B8388">
-        <v>0.6333411680991003</v>
+        <v>0.6333411680991002</v>
       </c>
     </row>
     <row r="8389" spans="1:2">
@@ -67671,7 +67671,7 @@
         <v>8416</v>
       </c>
       <c r="B8416">
-        <v>50.61835058447158</v>
+        <v>50.61835058447157</v>
       </c>
     </row>
     <row r="8417" spans="1:2">
@@ -67975,7 +67975,7 @@
         <v>8454</v>
       </c>
       <c r="B8454">
-        <v>226.0096443817403</v>
+        <v>226.0096443817402</v>
       </c>
     </row>
     <row r="8455" spans="1:2">
@@ -68071,7 +68071,7 @@
         <v>8466</v>
       </c>
       <c r="B8466">
-        <v>19.83035875998127</v>
+        <v>19.83035875998126</v>
       </c>
     </row>
     <row r="8467" spans="1:2">
@@ -68183,7 +68183,7 @@
         <v>8480</v>
       </c>
       <c r="B8480">
-        <v>53.76446818450112</v>
+        <v>53.76446818450111</v>
       </c>
     </row>
     <row r="8481" spans="1:2">
@@ -68231,7 +68231,7 @@
         <v>8486</v>
       </c>
       <c r="B8486">
-        <v>0.822433532953787</v>
+        <v>0.8224335329537868</v>
       </c>
     </row>
     <row r="8487" spans="1:2">
@@ -68383,7 +68383,7 @@
         <v>8505</v>
       </c>
       <c r="B8505">
-        <v>34.87867738212537</v>
+        <v>34.87867738212536</v>
       </c>
     </row>
     <row r="8506" spans="1:2">
@@ -68423,7 +68423,7 @@
         <v>8510</v>
       </c>
       <c r="B8510">
-        <v>5.31929796591115</v>
+        <v>5.319297965911149</v>
       </c>
     </row>
     <row r="8511" spans="1:2">
@@ -68711,7 +68711,7 @@
         <v>8546</v>
       </c>
       <c r="B8546">
-        <v>9.631984835332176</v>
+        <v>9.631984835332174</v>
       </c>
     </row>
     <row r="8547" spans="1:2">
@@ -68759,7 +68759,7 @@
         <v>8552</v>
       </c>
       <c r="B8552">
-        <v>48.91883163127444</v>
+        <v>48.91883163127443</v>
       </c>
     </row>
     <row r="8553" spans="1:2">
@@ -68863,7 +68863,7 @@
         <v>8565</v>
       </c>
       <c r="B8565">
-        <v>60.96434439129439</v>
+        <v>60.96434439129438</v>
       </c>
     </row>
     <row r="8566" spans="1:2">
@@ -68911,7 +68911,7 @@
         <v>8571</v>
       </c>
       <c r="B8571">
-        <v>68.38431694812233</v>
+        <v>68.38431694812232</v>
       </c>
     </row>
     <row r="8572" spans="1:2">
@@ -68943,7 +68943,7 @@
         <v>8575</v>
       </c>
       <c r="B8575">
-        <v>300.3802303655593</v>
+        <v>300.3802303655592</v>
       </c>
     </row>
     <row r="8576" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>134.0278335426838</v>
+        <v>134.0278335426837</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -69007,7 +69007,7 @@
         <v>8583</v>
       </c>
       <c r="B8583">
-        <v>101.0532386987412</v>
+        <v>101.0532386987411</v>
       </c>
     </row>
     <row r="8584" spans="1:2">
@@ -69135,7 +69135,7 @@
         <v>8599</v>
       </c>
       <c r="B8599">
-        <v>22.48209482489299</v>
+        <v>22.48209482489298</v>
       </c>
     </row>
     <row r="8600" spans="1:2">
@@ -69231,7 +69231,7 @@
         <v>8611</v>
       </c>
       <c r="B8611">
-        <v>4.75566374435765</v>
+        <v>4.755663744357649</v>
       </c>
     </row>
     <row r="8612" spans="1:2">
@@ -69239,7 +69239,7 @@
         <v>8612</v>
       </c>
       <c r="B8612">
-        <v>20.11490143141757</v>
+        <v>20.11490143141756</v>
       </c>
     </row>
     <row r="8613" spans="1:2">
@@ -69247,7 +69247,7 @@
         <v>8613</v>
       </c>
       <c r="B8613">
-        <v>37.28625596472832</v>
+        <v>37.28625596472831</v>
       </c>
     </row>
     <row r="8614" spans="1:2">
@@ -69551,7 +69551,7 @@
         <v>8651</v>
       </c>
       <c r="B8651">
-        <v>54.46754560624969</v>
+        <v>54.46754560624968</v>
       </c>
     </row>
     <row r="8652" spans="1:2">
@@ -69559,7 +69559,7 @@
         <v>8652</v>
       </c>
       <c r="B8652">
-        <v>49.22186708525027</v>
+        <v>49.22186708525026</v>
       </c>
     </row>
     <row r="8653" spans="1:2">
@@ -69567,7 +69567,7 @@
         <v>8653</v>
       </c>
       <c r="B8653">
-        <v>41.6990265938522</v>
+        <v>41.69902659385219</v>
       </c>
     </row>
     <row r="8654" spans="1:2">
@@ -69591,7 +69591,7 @@
         <v>8656</v>
       </c>
       <c r="B8656">
-        <v>47.75182275532496</v>
+        <v>47.75182275532495</v>
       </c>
     </row>
     <row r="8657" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>48.39423447207063</v>
+        <v>48.39423447207062</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69807,7 +69807,7 @@
         <v>8683</v>
       </c>
       <c r="B8683">
-        <v>62.64334837178524</v>
+        <v>62.64334837178523</v>
       </c>
     </row>
     <row r="8684" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>10.12988322291394</v>
+        <v>10.12988322291393</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>18.34753653277033</v>
+        <v>18.34753653277032</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70175,7 +70175,7 @@
         <v>8729</v>
       </c>
       <c r="B8729">
-        <v>18.98455574240463</v>
+        <v>18.98455574240462</v>
       </c>
     </row>
     <row r="8730" spans="1:2">
@@ -70247,7 +70247,7 @@
         <v>8738</v>
       </c>
       <c r="B8738">
-        <v>70.14948381397961</v>
+        <v>70.1494838139796</v>
       </c>
     </row>
     <row r="8739" spans="1:2">
@@ -70263,7 +70263,7 @@
         <v>8740</v>
       </c>
       <c r="B8740">
-        <v>73.1080359492659</v>
+        <v>73.10803594926588</v>
       </c>
     </row>
     <row r="8741" spans="1:2">
@@ -70271,7 +70271,7 @@
         <v>8741</v>
       </c>
       <c r="B8741">
-        <v>71.30916591396256</v>
+        <v>71.30916591396254</v>
       </c>
     </row>
     <row r="8742" spans="1:2">
@@ -70375,7 +70375,7 @@
         <v>8754</v>
       </c>
       <c r="B8754">
-        <v>107.3680403687772</v>
+        <v>107.3680403687771</v>
       </c>
     </row>
     <row r="8755" spans="1:2">
